--- a/Documentation/ProjectDocumentation/Time_recording.xlsx
+++ b/Documentation/ProjectDocumentation/Time_recording.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="141">
   <si>
     <t>Nr</t>
   </si>
@@ -449,7 +449,10 @@
     <t>ActionBar, Main page, http call to musicpieces</t>
   </si>
   <si>
-    <t>Main page, Test-Daten</t>
+    <t>Main page, Sortierfunktion, Test-Daten</t>
+  </si>
+  <si>
+    <t>Main page, Filter funktion, Lösch-Funktion</t>
   </si>
 </sst>
 </file>
@@ -3038,7 +3041,7 @@
       </c>
       <c r="AF16" s="81">
         <f>AD17-AE16</f>
-        <v>-43</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="17" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -3086,7 +3089,7 @@
       </c>
       <c r="R17" s="32">
         <f>'Std-B'!C100</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S17" s="32">
         <f>'Std-B'!C111</f>
@@ -3134,7 +3137,7 @@
       </c>
       <c r="AD17" s="33">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AE17" s="69"/>
       <c r="AF17" s="82"/>
@@ -3184,7 +3187,7 @@
       </c>
       <c r="R18" s="29">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S18" s="29">
         <f t="shared" si="6"/>
@@ -3232,7 +3235,7 @@
       </c>
       <c r="AD18" s="31">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AE18" s="70"/>
       <c r="AF18" s="156"/>
@@ -7590,7 +7593,7 @@
   <dimension ref="A1:E223"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8824,7 +8827,7 @@
         <v>135</v>
       </c>
       <c r="C97" s="43">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="D97" s="46" t="s">
         <v>17</v>
@@ -8837,12 +8840,18 @@
       <c r="A98" s="46">
         <v>5</v>
       </c>
-      <c r="B98" s="42"/>
-      <c r="C98" s="43"/>
+      <c r="B98" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C98" s="43">
+        <v>60</v>
+      </c>
       <c r="D98" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E98" s="42"/>
+      <c r="E98" s="42" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="99" spans="1:5" s="47" customFormat="1" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="48">
@@ -8862,7 +8871,7 @@
       <c r="B100" s="164"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D100" s="163" t="s">
         <v>18</v>

--- a/Documentation/ProjectDocumentation/Time_recording.xlsx
+++ b/Documentation/ProjectDocumentation/Time_recording.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tools\archivist\Documentation\ProjectDocumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boris Fuchs\Desktop\projekt\projekt_archivist_git\archivist\Documentation\ProjectDocumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7425" yWindow="-15" windowWidth="7485" windowHeight="10590" activeTab="2"/>
+    <workbookView xWindow="7425" yWindow="-15" windowWidth="7485" windowHeight="10590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="161">
   <si>
     <t>Nr</t>
   </si>
@@ -498,6 +498,21 @@
   </si>
   <si>
     <t>Installation</t>
+  </si>
+  <si>
+    <t>User Guide, Presentation, Meetings,</t>
+  </si>
+  <si>
+    <t>Fertigstellung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Guide, </t>
+  </si>
+  <si>
+    <t>Poject</t>
+  </si>
+  <si>
+    <t>Meeting</t>
   </si>
 </sst>
 </file>
@@ -2774,7 +2789,7 @@
       </c>
       <c r="AF13" s="77">
         <f>AD14-AE13</f>
-        <v>-37</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="14" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2798,7 +2813,7 @@
       </c>
       <c r="L14" s="32">
         <f>'Std-A'!$C$34</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M14" s="32">
         <f>'Std-A'!$C$45</f>
@@ -2810,7 +2825,7 @@
       </c>
       <c r="O14" s="32">
         <f>'Std-A'!$C$67</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P14" s="32">
         <f>'Std-A'!$C$78</f>
@@ -2822,11 +2837,11 @@
       </c>
       <c r="R14" s="32">
         <f>'Std-A'!$C$100</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S14" s="32">
         <f>'Std-A'!$C$111</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T14" s="32">
         <f>'Std-A'!$C$122</f>
@@ -2834,7 +2849,7 @@
       </c>
       <c r="U14" s="32">
         <f>'Std-A'!$C$133</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="V14" s="32">
         <f>'Std-A'!$C$144</f>
@@ -2870,7 +2885,7 @@
       </c>
       <c r="AD14" s="33">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AE14" s="72"/>
       <c r="AF14" s="74"/>
@@ -2896,7 +2911,7 @@
       </c>
       <c r="L15" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15" s="29">
         <f t="shared" si="1"/>
@@ -2908,7 +2923,7 @@
       </c>
       <c r="O15" s="29">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P15" s="29">
         <f t="shared" si="1"/>
@@ -2920,11 +2935,11 @@
       </c>
       <c r="R15" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S15" s="29">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T15" s="29">
         <f t="shared" si="1"/>
@@ -2932,7 +2947,7 @@
       </c>
       <c r="U15" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="V15" s="29">
         <f t="shared" ref="V15:AC15" si="2">V14-V13</f>
@@ -2968,7 +2983,7 @@
       </c>
       <c r="AD15" s="30">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AE15" s="76"/>
       <c r="AF15" s="79"/>
@@ -3086,7 +3101,7 @@
       </c>
       <c r="AF16" s="77">
         <f>AD17-AE16</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -3110,7 +3125,7 @@
       </c>
       <c r="L17" s="32">
         <f>'Std-B'!C34</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M17" s="32">
         <f>'Std-B'!C45</f>
@@ -3122,7 +3137,7 @@
       </c>
       <c r="O17" s="32">
         <f>'Std-B'!C67</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P17" s="32">
         <f>'Std-B'!C78</f>
@@ -3182,7 +3197,7 @@
       </c>
       <c r="AD17" s="33">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AE17" s="72"/>
       <c r="AF17" s="74"/>
@@ -3208,7 +3223,7 @@
       </c>
       <c r="L18" s="29">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M18" s="29">
         <f t="shared" si="6"/>
@@ -3220,7 +3235,7 @@
       </c>
       <c r="O18" s="29">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P18" s="29">
         <f t="shared" si="6"/>
@@ -3280,7 +3295,7 @@
       </c>
       <c r="AD18" s="31">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AE18" s="76"/>
       <c r="AF18" s="78"/>
@@ -4868,8 +4883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E223"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5198,8 +5213,12 @@
       <c r="A28" s="46">
         <v>1</v>
       </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="43"/>
+      <c r="B28" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="43">
+        <v>120</v>
+      </c>
       <c r="D28" s="46" t="s">
         <v>17</v>
       </c>
@@ -5267,7 +5286,7 @@
       <c r="B34" s="172"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D34" s="167" t="s">
         <v>18</v>
@@ -5623,19 +5642,29 @@
       <c r="A63" s="46">
         <v>3</v>
       </c>
-      <c r="B63" s="42"/>
-      <c r="C63" s="43"/>
+      <c r="B63" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" s="43">
+        <v>80</v>
+      </c>
       <c r="D63" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E63" s="42"/>
+      <c r="E63" s="42" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="64" spans="1:5" s="47" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="46">
         <v>4</v>
       </c>
-      <c r="B64" s="42"/>
-      <c r="C64" s="43"/>
+      <c r="B64" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="43">
+        <v>120</v>
+      </c>
       <c r="D64" s="46" t="s">
         <v>17</v>
       </c>
@@ -5670,7 +5699,7 @@
       <c r="B67" s="172"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" s="167" t="s">
         <v>18</v>
@@ -5994,12 +6023,18 @@
       <c r="A94" s="46">
         <v>1</v>
       </c>
-      <c r="B94" s="42"/>
-      <c r="C94" s="43"/>
+      <c r="B94" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C94" s="43">
+        <v>140</v>
+      </c>
       <c r="D94" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E94" s="42"/>
+      <c r="E94" s="42" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="95" spans="1:5" s="47" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="46">
@@ -6063,7 +6098,7 @@
       <c r="B100" s="172"/>
       <c r="C100" s="25">
         <f>ROUND((SUM(C94:C99)/60),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D100" s="167" t="s">
         <v>18</v>
@@ -6138,12 +6173,18 @@
       <c r="A106" s="46">
         <v>2</v>
       </c>
-      <c r="B106" s="42"/>
-      <c r="C106" s="43"/>
+      <c r="B106" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="C106" s="43">
+        <v>120</v>
+      </c>
       <c r="D106" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E106" s="42"/>
+      <c r="E106" s="42" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="107" spans="1:5" s="47" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="46">
@@ -6196,7 +6237,7 @@
       <c r="B111" s="172"/>
       <c r="C111" s="25">
         <f>ROUND((SUM(C105:C110)/60),0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D111" s="167" t="s">
         <v>18</v>
@@ -6393,23 +6434,35 @@
       <c r="A127" s="46">
         <v>1</v>
       </c>
-      <c r="B127" s="42"/>
-      <c r="C127" s="43"/>
+      <c r="B127" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="C127" s="43">
+        <v>180</v>
+      </c>
       <c r="D127" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E127" s="42"/>
+      <c r="E127" s="42" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="128" spans="1:5" s="47" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="46">
         <v>2</v>
       </c>
-      <c r="B128" s="42"/>
-      <c r="C128" s="43"/>
+      <c r="B128" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="C128" s="43">
+        <v>600</v>
+      </c>
       <c r="D128" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E128" s="42"/>
+      <c r="E128" s="42" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="129" spans="1:5" s="47" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="46">
@@ -6462,7 +6515,7 @@
       <c r="B133" s="172"/>
       <c r="C133" s="25">
         <f>ROUND((SUM(C127:C132)/60),0)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D133" s="167" t="s">
         <v>18</v>
@@ -7655,8 +7708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="E121" sqref="E121"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7991,8 +8044,12 @@
       <c r="A28" s="46">
         <v>1</v>
       </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="43"/>
+      <c r="B28" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="43">
+        <v>120</v>
+      </c>
       <c r="D28" s="46" t="s">
         <v>17</v>
       </c>
@@ -8060,7 +8117,7 @@
       <c r="B34" s="172"/>
       <c r="C34" s="25">
         <f>ROUND((SUM(C28:C33)/60),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D34" s="167" t="s">
         <v>18</v>
@@ -8480,8 +8537,12 @@
       <c r="A65" s="46">
         <v>5</v>
       </c>
-      <c r="B65" s="42"/>
-      <c r="C65" s="43"/>
+      <c r="B65" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="C65" s="43">
+        <v>120</v>
+      </c>
       <c r="D65" s="46" t="s">
         <v>17</v>
       </c>
@@ -8505,7 +8566,7 @@
       <c r="B67" s="172"/>
       <c r="C67" s="25">
         <f>ROUND((SUM(C61:C66)/60),0)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D67" s="167" t="s">
         <v>18</v>
